--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value522.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value522.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.292472792144423</v>
+        <v>1.27782154083252</v>
       </c>
       <c r="B1">
-        <v>1.989084503171251</v>
+        <v>2.46479606628418</v>
       </c>
       <c r="C1">
-        <v>2.105530439857482</v>
+        <v>3.409960985183716</v>
       </c>
       <c r="D1">
-        <v>2.400520801528117</v>
+        <v>3.214523553848267</v>
       </c>
       <c r="E1">
-        <v>1.068037641875714</v>
+        <v>1.066484332084656</v>
       </c>
     </row>
   </sheetData>
